--- a/backend/exportTemplates/Reports-football-default.xlsx
+++ b/backend/exportTemplates/Reports-football-default.xlsx
@@ -103,9 +103,6 @@
     <t>угловые</t>
   </si>
   <si>
-    <t>${table:tr.marketIds}</t>
-  </si>
-  <si>
     <t>${table:tr.command}</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>${table:tr.resulting}</t>
+  </si>
+  <si>
+    <t>${table:tr.marketId}</t>
   </si>
 </sst>
 </file>
@@ -464,6 +464,41 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -473,6 +508,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -485,18 +529,14 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -507,46 +547,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -854,7 +854,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,210 +881,210 @@
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="10" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="16" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="18" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22" t="s">
+    <row r="2" spans="1:22" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="31"/>
-    </row>
-    <row r="3" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="U2" s="33"/>
+      <c r="V2" s="35"/>
+    </row>
+    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="28" t="s">
+      <c r="N3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="30"/>
-      <c r="V3" s="31"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,210 +1133,210 @@
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="10" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="16" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="18" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22" t="s">
+    <row r="2" spans="1:22" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="31"/>
-    </row>
-    <row r="3" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="U2" s="33"/>
+      <c r="V2" s="35"/>
+    </row>
+    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="28" t="s">
+      <c r="N3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="30"/>
-      <c r="V3" s="31"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1357,7 +1357,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,210 +1384,210 @@
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="18" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="10" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="16" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="18" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22" t="s">
+    <row r="2" spans="1:22" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="31"/>
-    </row>
-    <row r="3" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="U2" s="33"/>
+      <c r="V2" s="35"/>
+    </row>
+    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="28" t="s">
+      <c r="N3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="30"/>
-      <c r="V3" s="31"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1608,7 +1608,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,210 +1635,210 @@
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="10" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="16" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="18" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22" t="s">
+    <row r="2" spans="1:22" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="31"/>
-    </row>
-    <row r="3" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="U2" s="33"/>
+      <c r="V2" s="35"/>
+    </row>
+    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="28" t="s">
+      <c r="N3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="30"/>
-      <c r="V3" s="31"/>
-    </row>
-    <row r="4" spans="1:22" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U3" s="33"/>
+      <c r="V3" s="35"/>
+    </row>
+    <row r="4" spans="1:22" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1859,7 +1859,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="A1:XFD3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,210 +1886,210 @@
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="10" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="16" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="18" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22" t="s">
+    <row r="2" spans="1:22" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="31"/>
-    </row>
-    <row r="3" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="U2" s="33"/>
+      <c r="V2" s="35"/>
+    </row>
+    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="28" t="s">
+      <c r="N3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="30"/>
-      <c r="V3" s="31"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2110,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="A1:XFD3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,210 +2137,210 @@
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="10" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="16" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="18" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22" t="s">
+    <row r="2" spans="1:22" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="31"/>
-    </row>
-    <row r="3" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="U2" s="33"/>
+      <c r="V2" s="35"/>
+    </row>
+    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="28" t="s">
+      <c r="N3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="30"/>
-      <c r="V3" s="31"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2361,7 +2361,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="A1:XFD3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2388,210 +2388,210 @@
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="10" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="16" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="18" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22" t="s">
+    <row r="2" spans="1:22" s="10" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="31"/>
-    </row>
-    <row r="3" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="U2" s="33"/>
+      <c r="V2" s="35"/>
+    </row>
+    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="28" t="s">
+      <c r="N3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="30"/>
-      <c r="V3" s="31"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2612,7 +2612,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="A1:XFD3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2639,210 +2639,210 @@
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="10" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="16" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="18" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22" t="s">
+    <row r="2" spans="1:22" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="31"/>
-    </row>
-    <row r="3" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="U2" s="33"/>
+      <c r="V2" s="35"/>
+    </row>
+    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="28" t="s">
+      <c r="N3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="30"/>
-      <c r="V3" s="31"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2863,7 +2863,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="A1:XFD3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2890,210 +2890,210 @@
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="10" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="16" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22" t="s">
+    <row r="2" spans="1:22" s="10" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="31"/>
-    </row>
-    <row r="3" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="U2" s="33"/>
+      <c r="V2" s="35"/>
+    </row>
+    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="28" t="s">
+      <c r="N3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="30"/>
-      <c r="V3" s="31"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3114,7 +3114,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A7:A8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3141,210 +3141,210 @@
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="10" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="16" t="s">
+      <c r="T1" s="24"/>
+      <c r="U1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="18" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22" t="s">
+    <row r="2" spans="1:22" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="25" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="31"/>
-    </row>
-    <row r="3" spans="1:22" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="U2" s="33"/>
+      <c r="V2" s="35"/>
+    </row>
+    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="28" t="s">
+      <c r="N3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="30"/>
-      <c r="V3" s="31"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/backend/exportTemplates/Reports-football-default.xlsx
+++ b/backend/exportTemplates/Reports-football-default.xlsx
@@ -55,9 +55,6 @@
     <t>Обе забьют нет</t>
   </si>
   <si>
-    <t>Count голо за матч</t>
-  </si>
-  <si>
     <t>Первая команда</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>${table:tr.marketId}</t>
+  </si>
+  <si>
+    <t>Count голов за матч</t>
   </si>
 </sst>
 </file>
@@ -854,7 +854,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +874,7 @@
     <col min="15" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="16.42578125" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
     <col min="21" max="21" width="13.140625" customWidth="1"/>
@@ -944,147 +944,147 @@
         <v>9</v>
       </c>
       <c r="R2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>12</v>
       </c>
       <c r="U2" s="33"/>
       <c r="V2" s="35"/>
     </row>
     <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="N3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="T3" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="U3" s="33"/>
       <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,7 +1126,7 @@
     <col min="15" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="16.42578125" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
     <col min="21" max="21" width="13.140625" customWidth="1"/>
@@ -1196,147 +1196,147 @@
         <v>9</v>
       </c>
       <c r="R2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>12</v>
       </c>
       <c r="U2" s="33"/>
       <c r="V2" s="35"/>
     </row>
     <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="N3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="T3" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="U3" s="33"/>
       <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1357,7 +1357,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,7 +1377,7 @@
     <col min="15" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="16.42578125" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
     <col min="21" max="21" width="13.140625" customWidth="1"/>
@@ -1447,147 +1447,147 @@
         <v>9</v>
       </c>
       <c r="R2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>12</v>
       </c>
       <c r="U2" s="33"/>
       <c r="V2" s="35"/>
     </row>
     <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="N3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="T3" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="U3" s="33"/>
       <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1608,7 +1608,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,7 +1628,7 @@
     <col min="15" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="16.42578125" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" customWidth="1"/>
+    <col min="18" max="18" width="21" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
     <col min="21" max="21" width="13.140625" customWidth="1"/>
@@ -1698,147 +1698,147 @@
         <v>9</v>
       </c>
       <c r="R2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>12</v>
       </c>
       <c r="U2" s="33"/>
       <c r="V2" s="35"/>
     </row>
     <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="N3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="T3" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="U3" s="33"/>
       <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1859,7 +1859,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1879,7 +1879,7 @@
     <col min="15" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="16.42578125" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
     <col min="21" max="21" width="13.140625" customWidth="1"/>
@@ -1949,147 +1949,147 @@
         <v>9</v>
       </c>
       <c r="R2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>12</v>
       </c>
       <c r="U2" s="33"/>
       <c r="V2" s="35"/>
     </row>
     <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="N3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="T3" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="U3" s="33"/>
       <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2110,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,7 +2130,7 @@
     <col min="15" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="16.42578125" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
     <col min="21" max="21" width="13.140625" customWidth="1"/>
@@ -2200,147 +2200,147 @@
         <v>9</v>
       </c>
       <c r="R2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>12</v>
       </c>
       <c r="U2" s="33"/>
       <c r="V2" s="35"/>
     </row>
     <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="N3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="T3" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="U3" s="33"/>
       <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2361,7 +2361,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2381,7 +2381,7 @@
     <col min="15" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="16.42578125" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" customWidth="1"/>
+    <col min="18" max="18" width="21.28515625" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
     <col min="21" max="21" width="13.140625" customWidth="1"/>
@@ -2451,147 +2451,147 @@
         <v>9</v>
       </c>
       <c r="R2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>12</v>
       </c>
       <c r="U2" s="33"/>
       <c r="V2" s="35"/>
     </row>
     <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="N3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="T3" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="U3" s="33"/>
       <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2612,7 +2612,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2632,7 +2632,7 @@
     <col min="15" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="16.42578125" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
     <col min="21" max="21" width="13.140625" customWidth="1"/>
@@ -2702,147 +2702,147 @@
         <v>9</v>
       </c>
       <c r="R2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>12</v>
       </c>
       <c r="U2" s="33"/>
       <c r="V2" s="35"/>
     </row>
     <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="N3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="T3" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="U3" s="33"/>
       <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2863,7 +2863,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2883,7 +2883,7 @@
     <col min="15" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="16.42578125" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
     <col min="21" max="21" width="13.140625" customWidth="1"/>
@@ -2953,147 +2953,147 @@
         <v>9</v>
       </c>
       <c r="R2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>12</v>
       </c>
       <c r="U2" s="33"/>
       <c r="V2" s="35"/>
     </row>
     <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="N3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="T3" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="U3" s="33"/>
       <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -3114,7 +3114,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3134,7 +3134,7 @@
     <col min="15" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="16.42578125" customWidth="1"/>
     <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
     <col min="21" max="21" width="13.140625" customWidth="1"/>
@@ -3204,147 +3204,147 @@
         <v>9</v>
       </c>
       <c r="R2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>12</v>
       </c>
       <c r="U2" s="33"/>
       <c r="V2" s="35"/>
     </row>
     <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="15" t="s">
-        <v>23</v>
-      </c>
       <c r="N3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="T3" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>25</v>
       </c>
       <c r="U3" s="33"/>
       <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/backend/exportTemplates/Reports-football-default.xlsx
+++ b/backend/exportTemplates/Reports-football-default.xlsx
@@ -854,7 +854,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,7 +877,7 @@
     <col min="18" max="18" width="21.85546875" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" customWidth="1"/>
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,11 +1129,11 @@
     <col min="18" max="18" width="21.5703125" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" customWidth="1"/>
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1357,7 +1357,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="U1" sqref="U1:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,7 +1380,7 @@
     <col min="18" max="18" width="21.140625" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" customWidth="1"/>
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1608,7 +1608,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="U1" sqref="U1:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,11 +1631,11 @@
     <col min="18" max="18" width="21" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" customWidth="1"/>
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1859,7 +1859,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="U1" sqref="U1:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,11 +1882,11 @@
     <col min="18" max="18" width="20.7109375" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" customWidth="1"/>
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="10" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -2110,7 +2110,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="U1" sqref="U1:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2133,11 +2133,11 @@
     <col min="18" max="18" width="21.7109375" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" customWidth="1"/>
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -2361,7 +2361,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="U1" sqref="U1:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2384,11 +2384,11 @@
     <col min="18" max="18" width="21.28515625" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" customWidth="1"/>
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -2612,7 +2612,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="U1" sqref="U1:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2635,11 +2635,11 @@
     <col min="18" max="18" width="20.42578125" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" customWidth="1"/>
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -2863,7 +2863,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="U1" sqref="U1:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2886,11 +2886,11 @@
     <col min="18" max="18" width="20.7109375" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" customWidth="1"/>
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -3114,7 +3114,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="U1" sqref="U1:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3137,11 +3137,11 @@
     <col min="18" max="18" width="20.7109375" customWidth="1"/>
     <col min="19" max="19" width="17.85546875" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" customWidth="1"/>
     <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>

--- a/backend/exportTemplates/Reports-football-default.xlsx
+++ b/backend/exportTemplates/Reports-football-default.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20367"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307081D3-4832-4F73-97FB-3A75887B74FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strategy_1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="50">
   <si>
     <t>Общая информация</t>
   </si>
@@ -167,12 +168,18 @@
   </si>
   <si>
     <t>Count голов за матч</t>
+  </si>
+  <si>
+    <t>${table:tr.totalMatched}</t>
+  </si>
+  <si>
+    <t>ставка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-FC19]dd\ mmmm\ yyyy\ \г\.;@"/>
   </numFmts>
@@ -223,7 +230,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -266,36 +273,6 @@
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -431,125 +408,208 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -565,9 +625,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -605,7 +665,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -640,6 +700,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -675,9 +752,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -850,11 +944,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,97 +959,99 @@
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="7" width="5.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" customWidth="1"/>
-    <col min="11" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="21.85546875" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" customWidth="1"/>
-    <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="12" max="13" width="6.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
+    <col min="22" max="22" width="19.140625" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:23" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="25"/>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
       <c r="R1" s="31"/>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="32"/>
+      <c r="T1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="25"/>
+      <c r="V1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="W1" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+    <row r="2" spans="1:23" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="28"/>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="11" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="35"/>
-    </row>
-    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V2" s="40"/>
+      <c r="W2" s="37"/>
+    </row>
+    <row r="3" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
@@ -983,22 +1079,22 @@
       <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="N3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>23</v>
       </c>
       <c r="P3" s="12" t="s">
@@ -1007,19 +1103,22 @@
       <c r="Q3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="14" t="s">
+      <c r="R3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="U3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="33"/>
-      <c r="V3" s="35"/>
-    </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="41"/>
+      <c r="W3" s="38"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -1047,54 +1146,57 @@
       <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="W1:W3"/>
     <mergeCell ref="V1:V3"/>
-    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="K2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1102,11 +1204,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,97 +1219,99 @@
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="7" width="5.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" customWidth="1"/>
-    <col min="11" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" customWidth="1"/>
-    <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="12" max="13" width="6.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
+    <col min="22" max="22" width="19.140625" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:23" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="25"/>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
       <c r="R1" s="31"/>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="32"/>
+      <c r="T1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="25"/>
+      <c r="V1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="W1" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+    <row r="2" spans="1:23" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="28"/>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="11" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="35"/>
-    </row>
-    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V2" s="40"/>
+      <c r="W2" s="37"/>
+    </row>
+    <row r="3" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
@@ -1235,22 +1339,22 @@
       <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="N3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>23</v>
       </c>
       <c r="P3" s="12" t="s">
@@ -1259,19 +1363,22 @@
       <c r="Q3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="14" t="s">
+      <c r="R3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="U3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="33"/>
-      <c r="V3" s="35"/>
-    </row>
-    <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="41"/>
+      <c r="W3" s="38"/>
+    </row>
+    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -1299,65 +1406,68 @@
       <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="V1:V3"/>
-    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U3"/>
+      <selection sqref="A1:W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,97 +1478,99 @@
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="7" width="5.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" customWidth="1"/>
-    <col min="11" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" customWidth="1"/>
-    <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="12" max="13" width="6.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
+    <col min="22" max="22" width="19.140625" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:23" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="25"/>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
       <c r="R1" s="31"/>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="32"/>
+      <c r="T1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="25"/>
+      <c r="V1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="W1" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+    <row r="2" spans="1:23" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="28"/>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="11" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="35"/>
-    </row>
-    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V2" s="40"/>
+      <c r="W2" s="37"/>
+    </row>
+    <row r="3" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
@@ -1486,22 +1598,22 @@
       <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="N3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>23</v>
       </c>
       <c r="P3" s="12" t="s">
@@ -1510,19 +1622,22 @@
       <c r="Q3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="14" t="s">
+      <c r="R3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="U3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="33"/>
-      <c r="V3" s="35"/>
-    </row>
-    <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="41"/>
+      <c r="W3" s="38"/>
+    </row>
+    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -1550,65 +1665,68 @@
       <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="V1:V3"/>
-    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U3"/>
+      <selection sqref="A1:W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,97 +1737,99 @@
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="7" width="5.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" customWidth="1"/>
-    <col min="11" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="21" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" customWidth="1"/>
-    <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="12" max="13" width="6.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
+    <col min="22" max="22" width="19.140625" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:23" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="25"/>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
       <c r="R1" s="31"/>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="32"/>
+      <c r="T1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="25"/>
+      <c r="V1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="W1" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+    <row r="2" spans="1:23" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="28"/>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="11" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="35"/>
-    </row>
-    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V2" s="40"/>
+      <c r="W2" s="37"/>
+    </row>
+    <row r="3" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
@@ -1737,22 +1857,22 @@
       <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="N3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>23</v>
       </c>
       <c r="P3" s="12" t="s">
@@ -1761,19 +1881,22 @@
       <c r="Q3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="14" t="s">
+      <c r="R3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="U3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="33"/>
-      <c r="V3" s="35"/>
-    </row>
-    <row r="4" spans="1:22" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="41"/>
+      <c r="W3" s="38"/>
+    </row>
+    <row r="4" spans="1:23" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -1801,65 +1924,68 @@
       <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="V1:V3"/>
-    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U3"/>
+      <selection sqref="A1:W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,97 +1996,99 @@
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="7" width="5.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" customWidth="1"/>
-    <col min="11" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" customWidth="1"/>
-    <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="12" max="13" width="6.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
+    <col min="22" max="22" width="19.140625" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:23" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="25"/>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
       <c r="R1" s="31"/>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="32"/>
+      <c r="T1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="25"/>
+      <c r="V1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="W1" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+    <row r="2" spans="1:23" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="28"/>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="11" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="35"/>
-    </row>
-    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V2" s="40"/>
+      <c r="W2" s="37"/>
+    </row>
+    <row r="3" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
@@ -1988,22 +2116,22 @@
       <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="N3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>23</v>
       </c>
       <c r="P3" s="12" t="s">
@@ -2012,19 +2140,22 @@
       <c r="Q3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="14" t="s">
+      <c r="R3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="U3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="33"/>
-      <c r="V3" s="35"/>
-    </row>
-    <row r="4" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="41"/>
+      <c r="W3" s="38"/>
+    </row>
+    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -2052,65 +2183,68 @@
       <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="V1:V3"/>
-    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U3"/>
+      <selection sqref="A1:W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2121,97 +2255,99 @@
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="7" width="5.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" customWidth="1"/>
-    <col min="11" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="21.7109375" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" customWidth="1"/>
-    <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="12" max="13" width="6.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
+    <col min="22" max="22" width="19.140625" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:23" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="25"/>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
       <c r="R1" s="31"/>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="32"/>
+      <c r="T1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="25"/>
+      <c r="V1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="W1" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+    <row r="2" spans="1:23" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="28"/>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="11" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="35"/>
-    </row>
-    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V2" s="40"/>
+      <c r="W2" s="37"/>
+    </row>
+    <row r="3" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
@@ -2239,22 +2375,22 @@
       <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="N3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>23</v>
       </c>
       <c r="P3" s="12" t="s">
@@ -2263,19 +2399,22 @@
       <c r="Q3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="14" t="s">
+      <c r="R3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="U3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="33"/>
-      <c r="V3" s="35"/>
-    </row>
-    <row r="4" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="41"/>
+      <c r="W3" s="38"/>
+    </row>
+    <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -2303,65 +2442,68 @@
       <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="V1:V3"/>
-    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U3"/>
+      <selection sqref="A1:W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2372,97 +2514,99 @@
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="7" width="5.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" customWidth="1"/>
-    <col min="11" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="21.28515625" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" customWidth="1"/>
-    <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="12" max="13" width="6.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
+    <col min="22" max="22" width="19.140625" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:23" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="25"/>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
       <c r="R1" s="31"/>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="32"/>
+      <c r="T1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="25"/>
+      <c r="V1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="W1" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="10" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+    <row r="2" spans="1:23" s="10" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="28"/>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="11" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="35"/>
-    </row>
-    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V2" s="40"/>
+      <c r="W2" s="37"/>
+    </row>
+    <row r="3" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
@@ -2490,22 +2634,22 @@
       <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="N3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>23</v>
       </c>
       <c r="P3" s="12" t="s">
@@ -2514,19 +2658,22 @@
       <c r="Q3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="14" t="s">
+      <c r="R3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="U3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="33"/>
-      <c r="V3" s="35"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="41"/>
+      <c r="W3" s="38"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -2554,65 +2701,68 @@
       <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="V1:V3"/>
-    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U3"/>
+      <selection sqref="A1:W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2623,97 +2773,99 @@
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="7" width="5.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" customWidth="1"/>
-    <col min="11" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" customWidth="1"/>
-    <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="12" max="13" width="6.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
+    <col min="22" max="22" width="19.140625" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:23" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="25"/>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
       <c r="R1" s="31"/>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="32"/>
+      <c r="T1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="25"/>
+      <c r="V1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="W1" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+    <row r="2" spans="1:23" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="28"/>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="11" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="35"/>
-    </row>
-    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V2" s="40"/>
+      <c r="W2" s="37"/>
+    </row>
+    <row r="3" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
@@ -2741,22 +2893,22 @@
       <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="N3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>23</v>
       </c>
       <c r="P3" s="12" t="s">
@@ -2765,19 +2917,22 @@
       <c r="Q3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="14" t="s">
+      <c r="R3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="U3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="33"/>
-      <c r="V3" s="35"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="41"/>
+      <c r="W3" s="38"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -2805,65 +2960,68 @@
       <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="V1:V3"/>
-    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U3"/>
+      <selection sqref="A1:W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2874,97 +3032,99 @@
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="7" width="5.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" customWidth="1"/>
-    <col min="11" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" customWidth="1"/>
-    <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="12" max="13" width="6.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
+    <col min="22" max="22" width="19.140625" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:23" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="25"/>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
       <c r="R1" s="31"/>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="32"/>
+      <c r="T1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="25"/>
+      <c r="V1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="W1" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="10" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+    <row r="2" spans="1:23" s="10" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="28"/>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="11" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="35"/>
-    </row>
-    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V2" s="40"/>
+      <c r="W2" s="37"/>
+    </row>
+    <row r="3" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
@@ -2992,22 +3152,22 @@
       <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="N3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>23</v>
       </c>
       <c r="P3" s="12" t="s">
@@ -3016,19 +3176,22 @@
       <c r="Q3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="14" t="s">
+      <c r="R3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="U3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="33"/>
-      <c r="V3" s="35"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="41"/>
+      <c r="W3" s="38"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -3056,65 +3219,68 @@
       <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="V1:V3"/>
-    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U3"/>
+      <selection sqref="A1:W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3125,97 +3291,99 @@
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="7" width="5.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" customWidth="1"/>
-    <col min="11" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" customWidth="1"/>
-    <col min="20" max="20" width="18" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="12" max="13" width="6.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
+    <col min="22" max="22" width="19.140625" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:23" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="25"/>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
       <c r="R1" s="31"/>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="32"/>
+      <c r="T1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="25"/>
+      <c r="V1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="W1" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+    <row r="2" spans="1:23" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="28"/>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="11" t="s">
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="T2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="33"/>
-      <c r="V2" s="35"/>
-    </row>
-    <row r="3" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V2" s="40"/>
+      <c r="W2" s="37"/>
+    </row>
+    <row r="3" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
@@ -3243,22 +3411,22 @@
       <c r="I3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="M3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="N3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>23</v>
       </c>
       <c r="P3" s="12" t="s">
@@ -3267,19 +3435,22 @@
       <c r="Q3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="14" t="s">
+      <c r="R3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="U3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="33"/>
-      <c r="V3" s="35"/>
-    </row>
-    <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="41"/>
+      <c r="W3" s="38"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -3307,54 +3478,57 @@
       <c r="I4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="W4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="J1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:U3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="V1:V3"/>
-    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:U1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/exportTemplates/Reports-football-default.xlsx
+++ b/backend/exportTemplates/Reports-football-default.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20367"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20368"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307081D3-4832-4F73-97FB-3A75887B74FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E58B72B-FB27-4F62-92A4-2FC7D80E3478}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strategy_1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="52">
   <si>
     <t>Общая информация</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>ставка</t>
+  </si>
+  <si>
+    <t>Более 2,5</t>
+  </si>
+  <si>
+    <t>${table:tr.over25}</t>
   </si>
 </sst>
 </file>
@@ -553,6 +559,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -587,24 +611,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -945,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,68 +971,69 @@
     <col min="12" max="13" width="6.85546875" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" customWidth="1"/>
-    <col min="21" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="19.140625" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" customWidth="1"/>
+    <col min="16" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="21.85546875" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="19.140625" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:24" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="24" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="25"/>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="31"/>
+      <c r="W1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="X1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="33" t="s">
+    <row r="2" spans="1:24" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="11" t="s">
         <v>6</v>
       </c>
@@ -1034,24 +1041,27 @@
         <v>7</v>
       </c>
       <c r="Q2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="U2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="V2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="40"/>
-      <c r="W2" s="37"/>
-    </row>
-    <row r="3" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="28"/>
+      <c r="X2" s="25"/>
+    </row>
+    <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
@@ -1106,19 +1116,22 @@
       <c r="R3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="14" t="s">
+      <c r="S3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="V3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="38"/>
-    </row>
-    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="29"/>
+      <c r="X3" s="26"/>
+    </row>
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -1168,34 +1181,37 @@
         <v>38</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="W4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="X1:X3"/>
     <mergeCell ref="W1:W3"/>
-    <mergeCell ref="V1:V3"/>
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="U1:V1"/>
     <mergeCell ref="K2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1205,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,68 +1241,69 @@
     <col min="12" max="13" width="6.85546875" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" customWidth="1"/>
-    <col min="21" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="19.140625" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" customWidth="1"/>
+    <col min="16" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="21.85546875" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="19.140625" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="24" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="25"/>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="31"/>
+      <c r="W1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="X1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="33" t="s">
+    <row r="2" spans="1:24" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="11" t="s">
         <v>6</v>
       </c>
@@ -1294,24 +1311,27 @@
         <v>7</v>
       </c>
       <c r="Q2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="U2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="V2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="40"/>
-      <c r="W2" s="37"/>
-    </row>
-    <row r="3" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="28"/>
+      <c r="X2" s="25"/>
+    </row>
+    <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
@@ -1366,19 +1386,22 @@
       <c r="R3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="14" t="s">
+      <c r="S3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="V3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="38"/>
-    </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="29"/>
+      <c r="X3" s="26"/>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -1428,46 +1451,50 @@
         <v>38</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="W4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="W1:W3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="V1:V3"/>
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W4"/>
+      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,68 +1511,69 @@
     <col min="12" max="13" width="6.85546875" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" customWidth="1"/>
-    <col min="21" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="19.140625" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" customWidth="1"/>
+    <col min="16" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="21.85546875" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="19.140625" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="24" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="25"/>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="31"/>
+      <c r="W1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="X1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="33" t="s">
+    <row r="2" spans="1:24" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="11" t="s">
         <v>6</v>
       </c>
@@ -1553,24 +1581,27 @@
         <v>7</v>
       </c>
       <c r="Q2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="U2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="V2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="40"/>
-      <c r="W2" s="37"/>
-    </row>
-    <row r="3" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="28"/>
+      <c r="X2" s="25"/>
+    </row>
+    <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
@@ -1625,19 +1656,22 @@
       <c r="R3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="14" t="s">
+      <c r="S3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="V3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="38"/>
-    </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="29"/>
+      <c r="X3" s="26"/>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -1687,35 +1721,38 @@
         <v>38</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="W4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="W1:W3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="V1:V3"/>
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1723,10 +1760,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W4"/>
+      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,68 +1780,69 @@
     <col min="12" max="13" width="6.85546875" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" customWidth="1"/>
-    <col min="21" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="19.140625" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" customWidth="1"/>
+    <col min="16" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="21.85546875" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="19.140625" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="24" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="25"/>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="31"/>
+      <c r="W1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="X1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="33" t="s">
+    <row r="2" spans="1:24" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="11" t="s">
         <v>6</v>
       </c>
@@ -1812,24 +1850,27 @@
         <v>7</v>
       </c>
       <c r="Q2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="U2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="V2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="40"/>
-      <c r="W2" s="37"/>
-    </row>
-    <row r="3" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="28"/>
+      <c r="X2" s="25"/>
+    </row>
+    <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
@@ -1884,19 +1925,22 @@
       <c r="R3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="14" t="s">
+      <c r="S3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="V3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="38"/>
-    </row>
-    <row r="4" spans="1:23" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="29"/>
+      <c r="X3" s="26"/>
+    </row>
+    <row r="4" spans="1:24" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -1946,35 +1990,38 @@
         <v>38</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="W4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="W1:W3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="V1:V3"/>
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1982,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W4"/>
+      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,68 +2049,69 @@
     <col min="12" max="13" width="6.85546875" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" customWidth="1"/>
-    <col min="21" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="19.140625" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" customWidth="1"/>
+    <col min="16" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="21.85546875" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="19.140625" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="24" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="25"/>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="31"/>
+      <c r="W1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="X1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="33" t="s">
+    <row r="2" spans="1:24" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="11" t="s">
         <v>6</v>
       </c>
@@ -2071,24 +2119,27 @@
         <v>7</v>
       </c>
       <c r="Q2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="U2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="V2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="40"/>
-      <c r="W2" s="37"/>
-    </row>
-    <row r="3" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="28"/>
+      <c r="X2" s="25"/>
+    </row>
+    <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
@@ -2143,19 +2194,22 @@
       <c r="R3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="14" t="s">
+      <c r="S3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="V3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="38"/>
-    </row>
-    <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="29"/>
+      <c r="X3" s="26"/>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -2205,35 +2259,38 @@
         <v>38</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="W4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="W1:W3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="V1:V3"/>
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2241,10 +2298,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W4"/>
+      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2261,68 +2318,69 @@
     <col min="12" max="13" width="6.85546875" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" customWidth="1"/>
-    <col min="21" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="19.140625" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" customWidth="1"/>
+    <col min="16" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="21.85546875" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="19.140625" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="24" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="25"/>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="31"/>
+      <c r="W1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="X1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="33" t="s">
+    <row r="2" spans="1:24" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="11" t="s">
         <v>6</v>
       </c>
@@ -2330,24 +2388,27 @@
         <v>7</v>
       </c>
       <c r="Q2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="U2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="V2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="40"/>
-      <c r="W2" s="37"/>
-    </row>
-    <row r="3" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="28"/>
+      <c r="X2" s="25"/>
+    </row>
+    <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
@@ -2402,19 +2463,22 @@
       <c r="R3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="14" t="s">
+      <c r="S3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="V3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="38"/>
-    </row>
-    <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="29"/>
+      <c r="X3" s="26"/>
+    </row>
+    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -2464,35 +2528,38 @@
         <v>38</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="W4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="W1:W3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="V1:V3"/>
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2500,10 +2567,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W4"/>
+      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2520,68 +2587,69 @@
     <col min="12" max="13" width="6.85546875" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" customWidth="1"/>
-    <col min="21" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="19.140625" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" customWidth="1"/>
+    <col min="16" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="21.85546875" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="19.140625" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="24" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="25"/>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="31"/>
+      <c r="W1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="X1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="10" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="33" t="s">
+    <row r="2" spans="1:24" s="10" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="11" t="s">
         <v>6</v>
       </c>
@@ -2589,24 +2657,27 @@
         <v>7</v>
       </c>
       <c r="Q2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="U2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="V2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="40"/>
-      <c r="W2" s="37"/>
-    </row>
-    <row r="3" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="28"/>
+      <c r="X2" s="25"/>
+    </row>
+    <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
@@ -2661,19 +2732,22 @@
       <c r="R3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="14" t="s">
+      <c r="S3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="V3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="38"/>
-    </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="29"/>
+      <c r="X3" s="26"/>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -2723,35 +2797,38 @@
         <v>38</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="W4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="W1:W3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="V1:V3"/>
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2759,10 +2836,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W4"/>
+      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2779,68 +2856,69 @@
     <col min="12" max="13" width="6.85546875" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" customWidth="1"/>
-    <col min="21" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="19.140625" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" customWidth="1"/>
+    <col min="16" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="21.85546875" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="19.140625" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="24" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="25"/>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="31"/>
+      <c r="W1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="X1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="33" t="s">
+    <row r="2" spans="1:24" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="11" t="s">
         <v>6</v>
       </c>
@@ -2848,24 +2926,27 @@
         <v>7</v>
       </c>
       <c r="Q2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="U2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="V2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="40"/>
-      <c r="W2" s="37"/>
-    </row>
-    <row r="3" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="28"/>
+      <c r="X2" s="25"/>
+    </row>
+    <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
@@ -2920,19 +3001,22 @@
       <c r="R3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="14" t="s">
+      <c r="S3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="V3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="38"/>
-    </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="29"/>
+      <c r="X3" s="26"/>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -2982,35 +3066,38 @@
         <v>38</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="W4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="W1:W3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="V1:V3"/>
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3018,10 +3105,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W4"/>
+      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3038,68 +3125,69 @@
     <col min="12" max="13" width="6.85546875" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" customWidth="1"/>
-    <col min="21" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="19.140625" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" customWidth="1"/>
+    <col min="16" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="21.85546875" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="19.140625" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="24" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="25"/>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="31"/>
+      <c r="W1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="X1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="10" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="33" t="s">
+    <row r="2" spans="1:24" s="10" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="11" t="s">
         <v>6</v>
       </c>
@@ -3107,24 +3195,27 @@
         <v>7</v>
       </c>
       <c r="Q2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="U2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="V2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="40"/>
-      <c r="W2" s="37"/>
-    </row>
-    <row r="3" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="28"/>
+      <c r="X2" s="25"/>
+    </row>
+    <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
@@ -3179,19 +3270,22 @@
       <c r="R3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="14" t="s">
+      <c r="S3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="V3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="38"/>
-    </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="29"/>
+      <c r="X3" s="26"/>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -3241,35 +3335,38 @@
         <v>38</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="W4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="W1:W3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="V1:V3"/>
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3277,10 +3374,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:W4"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3297,68 +3394,69 @@
     <col min="12" max="13" width="6.85546875" customWidth="1"/>
     <col min="14" max="14" width="7.7109375" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" customWidth="1"/>
-    <col min="18" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" customWidth="1"/>
-    <col min="21" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="19.140625" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" customWidth="1"/>
+    <col min="16" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="21.85546875" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" customWidth="1"/>
+    <col min="22" max="22" width="18" customWidth="1"/>
+    <col min="23" max="23" width="19.140625" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="24" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="25"/>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="31"/>
+      <c r="W1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="X1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="33" t="s">
+    <row r="2" spans="1:24" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="35"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="11" t="s">
         <v>6</v>
       </c>
@@ -3366,24 +3464,27 @@
         <v>7</v>
       </c>
       <c r="Q2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="U2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="V2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="40"/>
-      <c r="W2" s="37"/>
-    </row>
-    <row r="3" spans="1:23" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="28"/>
+      <c r="X2" s="25"/>
+    </row>
+    <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
@@ -3438,19 +3539,22 @@
       <c r="R3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="14" t="s">
+      <c r="S3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="V3" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="41"/>
-      <c r="W3" s="38"/>
-    </row>
-    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="29"/>
+      <c r="X3" s="26"/>
+    </row>
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
@@ -3500,35 +3604,38 @@
         <v>38</v>
       </c>
       <c r="Q4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="W4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="X4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="W1:W3"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="V1:V3"/>
     <mergeCell ref="A1:J2"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/exportTemplates/Reports-football-default.xlsx
+++ b/backend/exportTemplates/Reports-football-default.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20369"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E58B72B-FB27-4F62-92A4-2FC7D80E3478}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E88406-A50C-4890-898D-00F9D865B9B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strategy_1" sheetId="1" r:id="rId1"/>
@@ -44,12 +44,6 @@
     <t>Момент срабатывания стратегии</t>
   </si>
   <si>
-    <t>Менее 1,5</t>
-  </si>
-  <si>
-    <t>Менее 2,5</t>
-  </si>
-  <si>
     <t>Обе забьют да</t>
   </si>
   <si>
@@ -137,12 +131,6 @@
     <t>${table:tr.main.mod}</t>
   </si>
   <si>
-    <t>${table:tr.under15}</t>
-  </si>
-  <si>
-    <t>${table:tr.under25}</t>
-  </si>
-  <si>
     <t>${table:tr.bothTeamsToScoreYes}</t>
   </si>
   <si>
@@ -179,7 +167,19 @@
     <t>Более 2,5</t>
   </si>
   <si>
-    <t>${table:tr.over25}</t>
+    <t>${table:tr.over15A}</t>
+  </si>
+  <si>
+    <t>Более 1,5</t>
+  </si>
+  <si>
+    <t>против</t>
+  </si>
+  <si>
+    <t>${table:tr.over25A}</t>
+  </si>
+  <si>
+    <t>${table:tr.over25B}</t>
   </si>
 </sst>
 </file>
@@ -953,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,174 +1035,174 @@
       <c r="M2" s="40"/>
       <c r="N2" s="41"/>
       <c r="O2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="12" t="s">
+      <c r="T2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="V2" s="15" t="s">
         <v>9</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>11</v>
       </c>
       <c r="W2" s="28"/>
       <c r="X2" s="25"/>
     </row>
     <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="I3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="J3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="L3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="M3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="15" t="s">
+      <c r="P3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="V3" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W3" s="29"/>
       <c r="X3" s="26"/>
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>51</v>
       </c>
       <c r="R4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="W4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="X4" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1223,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,174 +1305,174 @@
       <c r="M2" s="40"/>
       <c r="N2" s="41"/>
       <c r="O2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="12" t="s">
+      <c r="T2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="V2" s="23" t="s">
         <v>9</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>11</v>
       </c>
       <c r="W2" s="28"/>
       <c r="X2" s="25"/>
     </row>
     <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="I3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="J3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="L3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="M3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="23" t="s">
+      <c r="P3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="V3" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W3" s="29"/>
       <c r="X3" s="26"/>
     </row>
     <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>51</v>
       </c>
       <c r="R4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="W4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="X4" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1494,7 +1494,7 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
+      <selection activeCell="O2" sqref="O2:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,174 +1575,174 @@
       <c r="M2" s="40"/>
       <c r="N2" s="41"/>
       <c r="O2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="12" t="s">
+      <c r="T2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="V2" s="23" t="s">
         <v>9</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>11</v>
       </c>
       <c r="W2" s="28"/>
       <c r="X2" s="25"/>
     </row>
     <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="I3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="J3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="L3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="M3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="23" t="s">
+      <c r="P3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="V3" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W3" s="29"/>
       <c r="X3" s="26"/>
     </row>
     <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>51</v>
       </c>
       <c r="R4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="W4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="X4" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1763,7 +1763,7 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
+      <selection activeCell="O2" sqref="O2:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,174 +1844,174 @@
       <c r="M2" s="40"/>
       <c r="N2" s="41"/>
       <c r="O2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="12" t="s">
+      <c r="T2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="V2" s="23" t="s">
         <v>9</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>11</v>
       </c>
       <c r="W2" s="28"/>
       <c r="X2" s="25"/>
     </row>
     <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="I3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="J3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="L3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="M3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="23" t="s">
+      <c r="P3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="V3" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W3" s="29"/>
       <c r="X3" s="26"/>
     </row>
     <row r="4" spans="1:24" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>51</v>
       </c>
       <c r="R4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="W4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="X4" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2032,7 +2032,7 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
+      <selection activeCell="O2" sqref="O2:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,174 +2113,174 @@
       <c r="M2" s="40"/>
       <c r="N2" s="41"/>
       <c r="O2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="12" t="s">
+      <c r="T2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="V2" s="23" t="s">
         <v>9</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>11</v>
       </c>
       <c r="W2" s="28"/>
       <c r="X2" s="25"/>
     </row>
     <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="I3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="J3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="L3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="M3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="23" t="s">
+      <c r="P3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="V3" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W3" s="29"/>
       <c r="X3" s="26"/>
     </row>
     <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>51</v>
       </c>
       <c r="R4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="W4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="X4" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2301,7 +2301,7 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
+      <selection activeCell="O2" sqref="O2:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2382,174 +2382,174 @@
       <c r="M2" s="40"/>
       <c r="N2" s="41"/>
       <c r="O2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="12" t="s">
+      <c r="T2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="V2" s="23" t="s">
         <v>9</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>11</v>
       </c>
       <c r="W2" s="28"/>
       <c r="X2" s="25"/>
     </row>
     <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="I3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="J3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="L3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="M3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="23" t="s">
+      <c r="P3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="V3" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W3" s="29"/>
       <c r="X3" s="26"/>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>51</v>
       </c>
       <c r="R4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="W4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="X4" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2570,7 +2570,7 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
+      <selection activeCell="O2" sqref="O2:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2651,174 +2651,174 @@
       <c r="M2" s="40"/>
       <c r="N2" s="41"/>
       <c r="O2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="12" t="s">
+      <c r="T2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="V2" s="23" t="s">
         <v>9</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>11</v>
       </c>
       <c r="W2" s="28"/>
       <c r="X2" s="25"/>
     </row>
     <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="I3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="J3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="L3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="M3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="23" t="s">
+      <c r="P3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="V3" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W3" s="29"/>
       <c r="X3" s="26"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>51</v>
       </c>
       <c r="R4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="W4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="X4" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2839,7 +2839,7 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
+      <selection activeCell="O2" sqref="O2:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2920,174 +2920,174 @@
       <c r="M2" s="40"/>
       <c r="N2" s="41"/>
       <c r="O2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="12" t="s">
+      <c r="T2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="V2" s="23" t="s">
         <v>9</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>11</v>
       </c>
       <c r="W2" s="28"/>
       <c r="X2" s="25"/>
     </row>
     <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="I3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="J3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="L3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="M3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="23" t="s">
+      <c r="P3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="V3" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W3" s="29"/>
       <c r="X3" s="26"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>51</v>
       </c>
       <c r="R4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="W4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="X4" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3108,7 +3108,7 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q1:Q1048576"/>
+      <selection activeCell="O2" sqref="O2:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3189,174 +3189,174 @@
       <c r="M2" s="40"/>
       <c r="N2" s="41"/>
       <c r="O2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="12" t="s">
+      <c r="T2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="V2" s="23" t="s">
         <v>9</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>11</v>
       </c>
       <c r="W2" s="28"/>
       <c r="X2" s="25"/>
     </row>
     <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="I3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="J3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="L3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="M3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="23" t="s">
+      <c r="P3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="V3" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W3" s="29"/>
       <c r="X3" s="26"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>51</v>
       </c>
       <c r="R4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="W4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="X4" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3377,7 +3377,7 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="O2" sqref="O2:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3458,174 +3458,174 @@
       <c r="M2" s="40"/>
       <c r="N2" s="41"/>
       <c r="O2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="12" t="s">
+      <c r="T2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="V2" s="23" t="s">
         <v>9</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>11</v>
       </c>
       <c r="W2" s="28"/>
       <c r="X2" s="25"/>
     </row>
     <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="H3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="I3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="J3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="L3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="M3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="23" t="s">
+      <c r="P3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="V3" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W3" s="29"/>
       <c r="X3" s="26"/>
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>51</v>
       </c>
       <c r="R4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="W4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="X4" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/backend/exportTemplates/Reports-football-default.xlsx
+++ b/backend/exportTemplates/Reports-football-default.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20370"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E88406-A50C-4890-898D-00F9D865B9B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CDE41F-715E-40E4-A54C-CC71FF1AB75D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="53">
   <si>
     <t>Общая информация</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>${table:tr.over25B}</t>
+  </si>
+  <si>
+    <t>${table:tr.modifiedBy}</t>
   </si>
 </sst>
 </file>
@@ -236,7 +239,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -488,11 +491,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -559,13 +593,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -611,6 +657,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -951,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:Q4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,63 +1032,67 @@
     <col min="20" max="20" width="21.85546875" customWidth="1"/>
     <col min="21" max="21" width="17.85546875" customWidth="1"/>
     <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="23" width="19.140625" customWidth="1"/>
+    <col min="23" max="23" width="23.140625" customWidth="1"/>
     <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="36" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="30" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="27" t="s">
+      <c r="V1" s="35"/>
+      <c r="W1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="39" t="s">
+      <c r="Y1" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
       <c r="O2" s="11" t="s">
         <v>48</v>
       </c>
@@ -1058,10 +1117,11 @@
       <c r="V2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="25"/>
-    </row>
-    <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="32"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="26"/>
+    </row>
+    <row r="3" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -1128,10 +1188,11 @@
       <c r="V3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="29"/>
-      <c r="X3" s="26"/>
-    </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="33"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="27"/>
+    </row>
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -1201,18 +1262,22 @@
       <c r="W4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="24" t="s">
         <v>41</v>
       </c>
+      <c r="Y4" s="9" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="Y1:Y3"/>
     <mergeCell ref="X1:X3"/>
-    <mergeCell ref="W1:W3"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="K1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="K2:N2"/>
+    <mergeCell ref="W1:W3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1221,10 +1286,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:Q4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,63 +1312,67 @@
     <col min="20" max="20" width="21.85546875" customWidth="1"/>
     <col min="21" max="21" width="17.85546875" customWidth="1"/>
     <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="23" width="19.140625" customWidth="1"/>
+    <col min="23" max="23" width="23.140625" customWidth="1"/>
     <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="36" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="30" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="27" t="s">
+      <c r="V1" s="35"/>
+      <c r="W1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="39" t="s">
+      <c r="Y1" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="10" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
       <c r="O2" s="11" t="s">
         <v>48</v>
       </c>
@@ -1328,10 +1397,11 @@
       <c r="V2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="25"/>
-    </row>
-    <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="32"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="26"/>
+    </row>
+    <row r="3" spans="1:25" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -1398,10 +1468,11 @@
       <c r="V3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="29"/>
-      <c r="X3" s="26"/>
-    </row>
-    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="33"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="27"/>
+    </row>
+    <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -1468,15 +1539,19 @@
       <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="48" t="s">
         <v>41</v>
       </c>
+      <c r="Y4" s="47" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="Y1:Y3"/>
     <mergeCell ref="X1:X3"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="W1:W3"/>
@@ -1491,10 +1566,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:Q4"/>
+      <selection activeCell="W1" sqref="W1:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,63 +1592,67 @@
     <col min="20" max="20" width="21.85546875" customWidth="1"/>
     <col min="21" max="21" width="17.85546875" customWidth="1"/>
     <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="23" width="19.140625" customWidth="1"/>
+    <col min="23" max="23" width="23.140625" customWidth="1"/>
     <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="36" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="30" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="27" t="s">
+      <c r="V1" s="35"/>
+      <c r="W1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="39" t="s">
+      <c r="Y1" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
       <c r="O2" s="11" t="s">
         <v>48</v>
       </c>
@@ -1598,10 +1677,11 @@
       <c r="V2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="25"/>
-    </row>
-    <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="32"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="26"/>
+    </row>
+    <row r="3" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -1668,10 +1748,11 @@
       <c r="V3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="29"/>
-      <c r="X3" s="26"/>
-    </row>
-    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="33"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="27"/>
+    </row>
+    <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -1738,15 +1819,19 @@
       <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="48" t="s">
         <v>41</v>
       </c>
+      <c r="Y4" s="47" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="Y1:Y3"/>
     <mergeCell ref="X1:X3"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="W1:W3"/>
@@ -1760,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:Q4"/>
+      <selection activeCell="W1" sqref="W1:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,63 +1871,67 @@
     <col min="20" max="20" width="21.85546875" customWidth="1"/>
     <col min="21" max="21" width="17.85546875" customWidth="1"/>
     <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="23" width="19.140625" customWidth="1"/>
+    <col min="23" max="23" width="23.140625" customWidth="1"/>
     <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="36" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="30" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="27" t="s">
+      <c r="V1" s="35"/>
+      <c r="W1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="39" t="s">
+      <c r="Y1" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
       <c r="O2" s="11" t="s">
         <v>48</v>
       </c>
@@ -1867,10 +1956,11 @@
       <c r="V2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="25"/>
-    </row>
-    <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="32"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="26"/>
+    </row>
+    <row r="3" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -1937,10 +2027,11 @@
       <c r="V3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="29"/>
-      <c r="X3" s="26"/>
-    </row>
-    <row r="4" spans="1:24" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="33"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="27"/>
+    </row>
+    <row r="4" spans="1:25" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -2007,15 +2098,19 @@
       <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="48" t="s">
         <v>41</v>
       </c>
+      <c r="Y4" s="47" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="Y1:Y3"/>
     <mergeCell ref="X1:X3"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="W1:W3"/>
@@ -2029,10 +2124,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:Q4"/>
+      <selection activeCell="W1" sqref="W1:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2055,63 +2150,67 @@
     <col min="20" max="20" width="21.85546875" customWidth="1"/>
     <col min="21" max="21" width="17.85546875" customWidth="1"/>
     <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="23" width="19.140625" customWidth="1"/>
+    <col min="23" max="23" width="23.140625" customWidth="1"/>
     <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="36" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="30" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="27" t="s">
+      <c r="V1" s="35"/>
+      <c r="W1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="39" t="s">
+      <c r="Y1" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="10" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
       <c r="O2" s="11" t="s">
         <v>48</v>
       </c>
@@ -2136,10 +2235,11 @@
       <c r="V2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="25"/>
-    </row>
-    <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="32"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="26"/>
+    </row>
+    <row r="3" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -2206,10 +2306,11 @@
       <c r="V3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="29"/>
-      <c r="X3" s="26"/>
-    </row>
-    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="33"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="27"/>
+    </row>
+    <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -2276,15 +2377,19 @@
       <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="48" t="s">
         <v>41</v>
       </c>
+      <c r="Y4" s="47" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="Y1:Y3"/>
     <mergeCell ref="X1:X3"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="W1:W3"/>
@@ -2298,10 +2403,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:Q4"/>
+      <selection activeCell="W1" sqref="W1:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2324,63 +2429,67 @@
     <col min="20" max="20" width="21.85546875" customWidth="1"/>
     <col min="21" max="21" width="17.85546875" customWidth="1"/>
     <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="23" width="19.140625" customWidth="1"/>
+    <col min="23" max="23" width="23.140625" customWidth="1"/>
     <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="36" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="30" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="27" t="s">
+      <c r="V1" s="35"/>
+      <c r="W1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="39" t="s">
+      <c r="Y1" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
       <c r="O2" s="11" t="s">
         <v>48</v>
       </c>
@@ -2405,10 +2514,11 @@
       <c r="V2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="25"/>
-    </row>
-    <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="32"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="26"/>
+    </row>
+    <row r="3" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -2475,10 +2585,11 @@
       <c r="V3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="29"/>
-      <c r="X3" s="26"/>
-    </row>
-    <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="33"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="27"/>
+    </row>
+    <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -2545,15 +2656,19 @@
       <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="48" t="s">
         <v>41</v>
       </c>
+      <c r="Y4" s="47" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="Y1:Y3"/>
     <mergeCell ref="X1:X3"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="W1:W3"/>
@@ -2567,10 +2682,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:Q4"/>
+      <selection activeCell="W1" sqref="W1:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2593,63 +2708,67 @@
     <col min="20" max="20" width="21.85546875" customWidth="1"/>
     <col min="21" max="21" width="17.85546875" customWidth="1"/>
     <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="23" width="19.140625" customWidth="1"/>
+    <col min="23" max="23" width="23.140625" customWidth="1"/>
     <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="36" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="30" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="27" t="s">
+      <c r="V1" s="35"/>
+      <c r="W1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" s="10" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="39" t="s">
+      <c r="Y1" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="10" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
       <c r="O2" s="11" t="s">
         <v>48</v>
       </c>
@@ -2674,10 +2793,11 @@
       <c r="V2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="25"/>
-    </row>
-    <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="32"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="26"/>
+    </row>
+    <row r="3" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -2744,10 +2864,11 @@
       <c r="V3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="29"/>
-      <c r="X3" s="26"/>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="33"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="27"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -2814,15 +2935,19 @@
       <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="48" t="s">
         <v>41</v>
       </c>
+      <c r="Y4" s="47" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="Y1:Y3"/>
     <mergeCell ref="X1:X3"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="W1:W3"/>
@@ -2836,10 +2961,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:Q4"/>
+      <selection activeCell="W1" sqref="W1:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2862,63 +2987,67 @@
     <col min="20" max="20" width="21.85546875" customWidth="1"/>
     <col min="21" max="21" width="17.85546875" customWidth="1"/>
     <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="23" width="19.140625" customWidth="1"/>
+    <col min="23" max="23" width="23.140625" customWidth="1"/>
     <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="36" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="30" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="27" t="s">
+      <c r="V1" s="35"/>
+      <c r="W1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="39" t="s">
+      <c r="Y1" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
       <c r="O2" s="11" t="s">
         <v>48</v>
       </c>
@@ -2943,10 +3072,11 @@
       <c r="V2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="25"/>
-    </row>
-    <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="32"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="26"/>
+    </row>
+    <row r="3" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -3013,10 +3143,11 @@
       <c r="V3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="29"/>
-      <c r="X3" s="26"/>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="33"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="27"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -3083,15 +3214,19 @@
       <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="48" t="s">
         <v>41</v>
       </c>
+      <c r="Y4" s="47" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="Y1:Y3"/>
     <mergeCell ref="X1:X3"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="W1:W3"/>
@@ -3105,10 +3240,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:Q4"/>
+      <selection activeCell="W1" sqref="W1:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3131,63 +3266,67 @@
     <col min="20" max="20" width="21.85546875" customWidth="1"/>
     <col min="21" max="21" width="17.85546875" customWidth="1"/>
     <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="23" width="19.140625" customWidth="1"/>
+    <col min="23" max="23" width="23.140625" customWidth="1"/>
     <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="36" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="30" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="27" t="s">
+      <c r="V1" s="35"/>
+      <c r="W1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" s="10" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="39" t="s">
+      <c r="Y1" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="10" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
       <c r="O2" s="11" t="s">
         <v>48</v>
       </c>
@@ -3212,10 +3351,11 @@
       <c r="V2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="25"/>
-    </row>
-    <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="32"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="26"/>
+    </row>
+    <row r="3" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -3282,10 +3422,11 @@
       <c r="V3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="29"/>
-      <c r="X3" s="26"/>
-    </row>
-    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="33"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="27"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -3352,15 +3493,19 @@
       <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="48" t="s">
         <v>41</v>
       </c>
+      <c r="Y4" s="47" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="Y1:Y3"/>
     <mergeCell ref="X1:X3"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="W1:W3"/>
@@ -3374,10 +3519,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:Q4"/>
+      <selection activeCell="W1" sqref="W1:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3400,63 +3545,67 @@
     <col min="20" max="20" width="21.85546875" customWidth="1"/>
     <col min="21" max="21" width="17.85546875" customWidth="1"/>
     <col min="22" max="22" width="18" customWidth="1"/>
-    <col min="23" max="23" width="19.140625" customWidth="1"/>
+    <col min="23" max="23" width="23.140625" customWidth="1"/>
     <col min="24" max="24" width="15.7109375" customWidth="1"/>
+    <col min="25" max="25" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="36" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="30" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="27" t="s">
+      <c r="V1" s="35"/>
+      <c r="W1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="39" t="s">
+      <c r="Y1" s="25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="10" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="45"/>
       <c r="O2" s="11" t="s">
         <v>48</v>
       </c>
@@ -3481,10 +3630,11 @@
       <c r="V2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="25"/>
-    </row>
-    <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="32"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="26"/>
+    </row>
+    <row r="3" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -3551,10 +3701,11 @@
       <c r="V3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="29"/>
-      <c r="X3" s="26"/>
-    </row>
-    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" s="33"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="27"/>
+    </row>
+    <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -3621,15 +3772,19 @@
       <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="48" t="s">
         <v>41</v>
       </c>
+      <c r="Y4" s="47" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="Y1:Y3"/>
     <mergeCell ref="X1:X3"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="W1:W3"/>

--- a/backend/exportTemplates/Reports-football-default.xlsx
+++ b/backend/exportTemplates/Reports-football-default.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20377"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CDE41F-715E-40E4-A54C-CC71FF1AB75D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A44714-1F1C-4110-8CBF-1F739B4932AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Strategy_1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="54">
   <si>
     <t>Общая информация</t>
   </si>
@@ -176,13 +176,16 @@
     <t>против</t>
   </si>
   <si>
-    <t>${table:tr.over25A}</t>
-  </si>
-  <si>
     <t>${table:tr.over25B}</t>
   </si>
   <si>
     <t>${table:tr.modifiedBy}</t>
+  </si>
+  <si>
+    <t>${table:tr.over15B}</t>
+  </si>
+  <si>
+    <t>за</t>
   </si>
 </sst>
 </file>
@@ -596,6 +599,15 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -612,15 +624,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -659,13 +662,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1008,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:Y4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,13 +1069,13 @@
         <v>2</v>
       </c>
       <c r="V1" s="35"/>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="X1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Y1" s="28" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1097,7 +1100,7 @@
         <v>48</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>46</v>
@@ -1117,9 +1120,9 @@
       <c r="V2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="26"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="29"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1168,7 +1171,7 @@
         <v>49</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>21</v>
@@ -1188,9 +1191,9 @@
       <c r="V3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="33"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="27"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="30"/>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1239,10 +1242,10 @@
         <v>47</v>
       </c>
       <c r="P4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>35</v>
@@ -1266,7 +1269,7 @@
         <v>41</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1288,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,13 +1349,13 @@
         <v>2</v>
       </c>
       <c r="V1" s="35"/>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="X1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Y1" s="28" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1377,7 +1380,7 @@
         <v>48</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>46</v>
@@ -1397,9 +1400,9 @@
       <c r="V2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="26"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="29"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1448,7 +1451,7 @@
         <v>49</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>21</v>
@@ -1468,9 +1471,9 @@
       <c r="V3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="33"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="27"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="30"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1519,10 +1522,10 @@
         <v>47</v>
       </c>
       <c r="P4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>35</v>
@@ -1539,14 +1542,14 @@
       <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="46" t="s">
+      <c r="W4" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="Y4" s="47" t="s">
-        <v>52</v>
+      <c r="Y4" s="26" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1569,7 +1572,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:Y4"/>
+      <selection activeCell="P2" sqref="P2:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,13 +1629,13 @@
         <v>2</v>
       </c>
       <c r="V1" s="35"/>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="X1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Y1" s="28" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1657,7 +1660,7 @@
         <v>48</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>46</v>
@@ -1677,9 +1680,9 @@
       <c r="V2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="26"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="29"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -1728,7 +1731,7 @@
         <v>49</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>21</v>
@@ -1748,9 +1751,9 @@
       <c r="V3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="33"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="27"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="30"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1799,10 +1802,10 @@
         <v>47</v>
       </c>
       <c r="P4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>35</v>
@@ -1819,14 +1822,14 @@
       <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="46" t="s">
+      <c r="W4" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="Y4" s="47" t="s">
-        <v>52</v>
+      <c r="Y4" s="26" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1848,7 +1851,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:Y4"/>
+      <selection activeCell="P2" sqref="P2:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,13 +1908,13 @@
         <v>2</v>
       </c>
       <c r="V1" s="35"/>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="X1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Y1" s="28" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1936,7 +1939,7 @@
         <v>48</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>46</v>
@@ -1956,9 +1959,9 @@
       <c r="V2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="26"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="29"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2007,7 +2010,7 @@
         <v>49</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>21</v>
@@ -2027,9 +2030,9 @@
       <c r="V3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="33"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="27"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="30"/>
     </row>
     <row r="4" spans="1:25" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2078,10 +2081,10 @@
         <v>47</v>
       </c>
       <c r="P4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>35</v>
@@ -2098,14 +2101,14 @@
       <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="46" t="s">
+      <c r="W4" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="Y4" s="47" t="s">
-        <v>52</v>
+      <c r="Y4" s="26" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2127,7 +2130,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:Y4"/>
+      <selection activeCell="P2" sqref="P2:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,13 +2187,13 @@
         <v>2</v>
       </c>
       <c r="V1" s="35"/>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="X1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Y1" s="28" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2215,7 +2218,7 @@
         <v>48</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>46</v>
@@ -2235,9 +2238,9 @@
       <c r="V2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="26"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="29"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2286,7 +2289,7 @@
         <v>49</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>21</v>
@@ -2306,9 +2309,9 @@
       <c r="V3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="33"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="27"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="30"/>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2357,10 +2360,10 @@
         <v>47</v>
       </c>
       <c r="P4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>35</v>
@@ -2377,14 +2380,14 @@
       <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="46" t="s">
+      <c r="W4" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="Y4" s="47" t="s">
-        <v>52</v>
+      <c r="Y4" s="26" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2406,7 +2409,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:Y4"/>
+      <selection activeCell="P2" sqref="P2:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2463,13 +2466,13 @@
         <v>2</v>
       </c>
       <c r="V1" s="35"/>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="X1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Y1" s="28" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2494,7 +2497,7 @@
         <v>48</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>46</v>
@@ -2514,9 +2517,9 @@
       <c r="V2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="26"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="29"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2565,7 +2568,7 @@
         <v>49</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>21</v>
@@ -2585,9 +2588,9 @@
       <c r="V3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="33"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="27"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="30"/>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2636,10 +2639,10 @@
         <v>47</v>
       </c>
       <c r="P4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>35</v>
@@ -2656,14 +2659,14 @@
       <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="46" t="s">
+      <c r="W4" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="Y4" s="47" t="s">
-        <v>52</v>
+      <c r="Y4" s="26" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2685,7 +2688,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:Y4"/>
+      <selection activeCell="P2" sqref="P2:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2742,13 +2745,13 @@
         <v>2</v>
       </c>
       <c r="V1" s="35"/>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="X1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Y1" s="28" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2773,7 +2776,7 @@
         <v>48</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>46</v>
@@ -2793,9 +2796,9 @@
       <c r="V2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="26"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="29"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -2844,7 +2847,7 @@
         <v>49</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>21</v>
@@ -2864,9 +2867,9 @@
       <c r="V3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="33"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="27"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="30"/>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2915,10 +2918,10 @@
         <v>47</v>
       </c>
       <c r="P4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>35</v>
@@ -2935,14 +2938,14 @@
       <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="46" t="s">
+      <c r="W4" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="Y4" s="47" t="s">
-        <v>52</v>
+      <c r="Y4" s="26" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2964,7 +2967,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:Y4"/>
+      <selection activeCell="P2" sqref="P2:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3021,13 +3024,13 @@
         <v>2</v>
       </c>
       <c r="V1" s="35"/>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="X1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Y1" s="28" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3052,7 +3055,7 @@
         <v>48</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>46</v>
@@ -3072,9 +3075,9 @@
       <c r="V2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="26"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="29"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -3123,7 +3126,7 @@
         <v>49</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>21</v>
@@ -3143,9 +3146,9 @@
       <c r="V3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="33"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="27"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="30"/>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -3194,10 +3197,10 @@
         <v>47</v>
       </c>
       <c r="P4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>35</v>
@@ -3214,14 +3217,14 @@
       <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="46" t="s">
+      <c r="W4" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="Y4" s="47" t="s">
-        <v>52</v>
+      <c r="Y4" s="26" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3243,7 +3246,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:Y4"/>
+      <selection activeCell="P2" sqref="P2:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3300,13 +3303,13 @@
         <v>2</v>
       </c>
       <c r="V1" s="35"/>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="X1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Y1" s="28" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3331,7 +3334,7 @@
         <v>48</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>46</v>
@@ -3351,9 +3354,9 @@
       <c r="V2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="26"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="29"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -3402,7 +3405,7 @@
         <v>49</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>21</v>
@@ -3422,9 +3425,9 @@
       <c r="V3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="33"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="27"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="30"/>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -3473,10 +3476,10 @@
         <v>47</v>
       </c>
       <c r="P4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>35</v>
@@ -3493,14 +3496,14 @@
       <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="46" t="s">
+      <c r="W4" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="Y4" s="47" t="s">
-        <v>52</v>
+      <c r="Y4" s="26" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3522,7 +3525,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:Y4"/>
+      <selection activeCell="P2" sqref="P2:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3579,13 +3582,13 @@
         <v>2</v>
       </c>
       <c r="V1" s="35"/>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="X1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Y1" s="28" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3610,7 +3613,7 @@
         <v>48</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>46</v>
@@ -3630,9 +3633,9 @@
       <c r="V2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="26"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="29"/>
     </row>
     <row r="3" spans="1:25" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
@@ -3681,7 +3684,7 @@
         <v>49</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>21</v>
@@ -3701,9 +3704,9 @@
       <c r="V3" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="33"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="27"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="30"/>
     </row>
     <row r="4" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -3752,10 +3755,10 @@
         <v>47</v>
       </c>
       <c r="P4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>35</v>
@@ -3772,14 +3775,14 @@
       <c r="V4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="46" t="s">
+      <c r="W4" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="Y4" s="47" t="s">
-        <v>52</v>
+      <c r="Y4" s="26" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
